--- a/data/trans_orig/P04A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>11157</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3424</v>
+        <v>3446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32164</v>
+        <v>31168</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02835218970308816</v>
+        <v>0.02835218970308817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008701883570037431</v>
+        <v>0.008756571342279654</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08173797233280464</v>
+        <v>0.07920541641146289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18920</v>
+        <v>16238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01360823500630381</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05243566847307409</v>
+        <v>0.04500333961203937</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>16067</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5528</v>
+        <v>5444</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34892</v>
+        <v>37031</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02129965498564802</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007328369584295088</v>
+        <v>0.007217288727230583</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04625521559266686</v>
+        <v>0.04909144096369302</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1491</v>
+        <v>1531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21471</v>
+        <v>21040</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0173921757035143</v>
+        <v>0.01739217570351431</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003789452242425857</v>
+        <v>0.003891823063923321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05456389989529094</v>
+        <v>0.05346714973618294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>7784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3150</v>
+        <v>2432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17011</v>
+        <v>17074</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02157251391891151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008728946583745286</v>
+        <v>0.006741417076635751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04714546022128123</v>
+        <v>0.04731855402184963</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -854,19 +854,19 @@
         <v>14628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7236</v>
+        <v>7797</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28457</v>
+        <v>30410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01939177357267763</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009592651158008761</v>
+        <v>0.01033645263023602</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03772500777567075</v>
+        <v>0.04031381988907402</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>63687</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43923</v>
+        <v>43426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89751</v>
+        <v>88704</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1618448139619154</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.111620576100407</v>
+        <v>0.110355622726225</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2280808884452922</v>
+        <v>0.2254199612702559</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -904,19 +904,19 @@
         <v>89269</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65777</v>
+        <v>69866</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113686</v>
+        <v>116247</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2474048493307307</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1822994070368851</v>
+        <v>0.1936306764340996</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3150771791487829</v>
+        <v>0.3221738228859629</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -925,19 +925,19 @@
         <v>152956</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>123454</v>
+        <v>123699</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>190930</v>
+        <v>189582</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2027710872904398</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1636605355864305</v>
+        <v>0.1639852098918408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2531131768817814</v>
+        <v>0.2513252741356892</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>22582</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10698</v>
+        <v>11255</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40421</v>
+        <v>39994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05738603691205175</v>
+        <v>0.05738603691205176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02718622803569726</v>
+        <v>0.02860213722850353</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1027208028452409</v>
+        <v>0.1016354575686237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -975,19 +975,19 @@
         <v>10794</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3599</v>
+        <v>4653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21780</v>
+        <v>20676</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02991496253820556</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00997412384432045</v>
+        <v>0.01289572412264283</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06036359799726183</v>
+        <v>0.05730128704998313</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -996,19 +996,19 @@
         <v>33376</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20608</v>
+        <v>18637</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53611</v>
+        <v>52227</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04424568822465479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02731940598923613</v>
+        <v>0.02470652909455909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07107174416946063</v>
+        <v>0.06923632138708083</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>93676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69019</v>
+        <v>67725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>123294</v>
+        <v>124414</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.23805378058641</v>
+        <v>0.2380537805864101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1753936213358392</v>
+        <v>0.1721055925577834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3133198581462564</v>
+        <v>0.316167602025218</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -1046,19 +1046,19 @@
         <v>78401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58325</v>
+        <v>59215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98528</v>
+        <v>101380</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2172838311798901</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1616445518874424</v>
+        <v>0.1641129266842578</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2730658217924909</v>
+        <v>0.2809707424189281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>83</v>
@@ -1067,19 +1067,19 @@
         <v>172076</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140564</v>
+        <v>138967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>207683</v>
+        <v>209798</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2281188077598248</v>
+        <v>0.2281188077598247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1863438135902666</v>
+        <v>0.1842260912841329</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2753219124786102</v>
+        <v>0.2781256057704857</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>195562</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>163950</v>
+        <v>165392</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>222818</v>
+        <v>226417</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4969710031330202</v>
+        <v>0.4969710031330204</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4166380989305233</v>
+        <v>0.4203034562324774</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5662367581470754</v>
+        <v>0.5753825597300891</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -1117,19 +1117,19 @@
         <v>169664</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>145576</v>
+        <v>143209</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>197463</v>
+        <v>195225</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4702156080259583</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4034571372271912</v>
+        <v>0.3968962621135142</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5472604135704162</v>
+        <v>0.5410587665305587</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>186</v>
@@ -1138,19 +1138,19 @@
         <v>365225</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>324055</v>
+        <v>320982</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>402343</v>
+        <v>407177</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4841729881667551</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4295945925429943</v>
+        <v>0.4255203576090291</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5333797625192206</v>
+        <v>0.5397882226645253</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>9324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3278</v>
+        <v>3531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22232</v>
+        <v>22739</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0196190028235379</v>
+        <v>0.01961900282353789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006896755254613167</v>
+        <v>0.007429238542924851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04677966162494777</v>
+        <v>0.04784661951337248</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1263,19 +1263,19 @@
         <v>4196</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1133</v>
+        <v>937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10252</v>
+        <v>10358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008423848316910291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002274677893699215</v>
+        <v>0.001880716332039283</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02057884679606666</v>
+        <v>0.02079146000279839</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1284,19 +1284,19 @@
         <v>13520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6969</v>
+        <v>6456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28431</v>
+        <v>25475</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01388959829156445</v>
+        <v>0.01388959829156444</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007159710457053863</v>
+        <v>0.006632028053607917</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02920783470607218</v>
+        <v>0.02617079259588271</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>15744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8536</v>
+        <v>8235</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27713</v>
+        <v>25849</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03312754934026002</v>
+        <v>0.03312754934026001</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01796253258851102</v>
+        <v>0.01732916425635591</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05831419351716548</v>
+        <v>0.05439088673012401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1334,19 +1334,19 @@
         <v>12580</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6660</v>
+        <v>6162</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23291</v>
+        <v>22141</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02525366608945611</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01336848120406981</v>
+        <v>0.01236973430886069</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0467545118134534</v>
+        <v>0.04444511263031889</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -1355,19 +1355,19 @@
         <v>28324</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18419</v>
+        <v>17910</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42127</v>
+        <v>41944</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02909788969110745</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01892265932119313</v>
+        <v>0.01839926189598392</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04327843742285265</v>
+        <v>0.04309046419133686</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>125983</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102544</v>
+        <v>101954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153306</v>
+        <v>153198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.265094092032411</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2157744224829305</v>
+        <v>0.2145316851651545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3225862273481759</v>
+        <v>0.3223599612508311</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -1405,19 +1405,19 @@
         <v>121719</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103527</v>
+        <v>100202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143860</v>
+        <v>141909</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2443345088509117</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.207816204164446</v>
+        <v>0.20114198150107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2887802882535075</v>
+        <v>0.2848647532197168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -1426,19 +1426,19 @@
         <v>247702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>216401</v>
+        <v>215696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>280004</v>
+        <v>279863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2544698483123669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2223134069735926</v>
+        <v>0.2215892496549277</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2876549636233806</v>
+        <v>0.2875094422899808</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>30468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18997</v>
+        <v>18589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47157</v>
+        <v>47708</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06411167830209585</v>
+        <v>0.06411167830209584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03997337118163533</v>
+        <v>0.03911401037869178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09922895481110085</v>
+        <v>0.1003864559763217</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1476,19 +1476,19 @@
         <v>30250</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20604</v>
+        <v>20770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45070</v>
+        <v>43252</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06072258414087762</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04136044322575581</v>
+        <v>0.0416927623564129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09047215270230095</v>
+        <v>0.0868229166294526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1497,19 +1497,19 @@
         <v>60718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>44156</v>
+        <v>44787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79990</v>
+        <v>82283</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0623772233256082</v>
+        <v>0.06237722332560818</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04536212666331074</v>
+        <v>0.04601042168350206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08217547000348473</v>
+        <v>0.08453162864993129</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>131508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>109721</v>
+        <v>106517</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>159728</v>
+        <v>156754</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2767189560854178</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2308756122869699</v>
+        <v>0.2241342503158236</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3361010167605866</v>
+        <v>0.3298417832585903</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>146</v>
@@ -1547,19 +1547,19 @@
         <v>152767</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>132803</v>
+        <v>132432</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>176833</v>
+        <v>174939</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3066600087794867</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.266585362141125</v>
+        <v>0.2658403054330302</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3549703103025406</v>
+        <v>0.3511665724569443</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>230</v>
@@ -1568,19 +1568,19 @@
         <v>284275</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>249853</v>
+        <v>252536</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>316798</v>
+        <v>317914</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2920420499199781</v>
+        <v>0.292042049919978</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2566803114254671</v>
+        <v>0.259436421696417</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.325454134949244</v>
+        <v>0.3266010136717633</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>162213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138093</v>
+        <v>134435</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189045</v>
+        <v>188192</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3413287214162774</v>
+        <v>0.3413287214162773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2905760174086684</v>
+        <v>0.2828779112234645</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3977903217226353</v>
+        <v>0.3959936033488297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -1618,19 +1618,19 @@
         <v>176652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154637</v>
+        <v>155601</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>199389</v>
+        <v>197893</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3546053838223576</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3104142588936392</v>
+        <v>0.3123485349631838</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4002480994840446</v>
+        <v>0.3972454457029682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -1639,19 +1639,19 @@
         <v>338864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>304160</v>
+        <v>303258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375763</v>
+        <v>372065</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3481233904593751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3124708659995685</v>
+        <v>0.3115438362887536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3860304335727764</v>
+        <v>0.3822309579563215</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>3926</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11513</v>
+        <v>10748</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.006377245183264883</v>
+        <v>0.006377245183264885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001740786967825987</v>
+        <v>0.001758520089612526</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0187027888928951</v>
+        <v>0.01745866280515117</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1764,19 +1764,19 @@
         <v>4576</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1677</v>
+        <v>1779</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9177</v>
+        <v>9768</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007369287282996306</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002701098481499506</v>
+        <v>0.002864268186292653</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01477746486151858</v>
+        <v>0.01572967551802157</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -1785,19 +1785,19 @@
         <v>8502</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3954</v>
+        <v>4062</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15653</v>
+        <v>16430</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.006875425429552079</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003197723139444845</v>
+        <v>0.003284822079376616</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01265803346999837</v>
+        <v>0.01328702349674144</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>16658</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9948</v>
+        <v>10424</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25344</v>
+        <v>26145</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02705947802182738</v>
+        <v>0.02705947802182739</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01616035464085205</v>
+        <v>0.01693300354955889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04117029839824625</v>
+        <v>0.04247146887677637</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1835,19 +1835,19 @@
         <v>11615</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6741</v>
+        <v>6442</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18463</v>
+        <v>18112</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01870378769290939</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01085458766951627</v>
+        <v>0.01037377269095238</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02973143188111368</v>
+        <v>0.0291667433521419</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -1856,19 +1856,19 @@
         <v>28273</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19553</v>
+        <v>19531</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38530</v>
+        <v>39676</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02286344655593811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01581176650476233</v>
+        <v>0.01579398782718414</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03115846060841144</v>
+        <v>0.03208507442637078</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>136804</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114488</v>
+        <v>115169</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160832</v>
+        <v>159215</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2222283525270561</v>
+        <v>0.2222283525270562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1859789021585246</v>
+        <v>0.1870849822984958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2612610356189197</v>
+        <v>0.2586347676312799</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1906,19 +1906,19 @@
         <v>107009</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91636</v>
+        <v>93235</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123728</v>
+        <v>125681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1723228280287893</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1475662419050838</v>
+        <v>0.150141006826138</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1992454920830832</v>
+        <v>0.2023907600275628</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>257</v>
@@ -1927,19 +1927,19 @@
         <v>243813</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>216792</v>
+        <v>218657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271864</v>
+        <v>271993</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1971669700591455</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1753156338631131</v>
+        <v>0.1768236396882412</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2198516549254328</v>
+        <v>0.2199557445574103</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>35433</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24398</v>
+        <v>24317</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49100</v>
+        <v>47958</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05755826309368435</v>
+        <v>0.05755826309368438</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03963221246484968</v>
+        <v>0.03950101781392074</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07976031788282116</v>
+        <v>0.07790536861550344</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>35</v>
@@ -1977,19 +1977,19 @@
         <v>25568</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17890</v>
+        <v>17984</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34363</v>
+        <v>34636</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04117373566622635</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02880894132281137</v>
+        <v>0.02895999215138596</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05533589285672105</v>
+        <v>0.05577548526882966</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>68</v>
@@ -1998,19 +1998,19 @@
         <v>61001</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46462</v>
+        <v>47736</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75792</v>
+        <v>76999</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04933033817868308</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03757288404076689</v>
+        <v>0.03860361152164703</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06129124570637867</v>
+        <v>0.0622680223336045</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>265870</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>240961</v>
+        <v>240468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>296013</v>
+        <v>292912</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4318885105862025</v>
+        <v>0.4318885105862026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3914257035710267</v>
+        <v>0.3906241127909685</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4808542260855789</v>
+        <v>0.4758168629428788</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>393</v>
@@ -2048,19 +2048,19 @@
         <v>294615</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>273492</v>
+        <v>271997</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>315821</v>
+        <v>316718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4744345367952538</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4404184983882614</v>
+        <v>0.4380109839256403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5085824666751642</v>
+        <v>0.5100272600516452</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>619</v>
@@ -2069,19 +2069,19 @@
         <v>560485</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>528627</v>
+        <v>530602</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>596242</v>
+        <v>597495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4532541258369111</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4274908512233803</v>
+        <v>0.4290882607904046</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4821698333007111</v>
+        <v>0.4831831693244915</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>156909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>131985</v>
+        <v>137777</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>177748</v>
+        <v>180547</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2548881505879647</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2144005569541866</v>
+        <v>0.2238092619111059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2887404323540939</v>
+        <v>0.2932861917068975</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>255</v>
@@ -2119,19 +2119,19 @@
         <v>177598</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>159618</v>
+        <v>159244</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>196642</v>
+        <v>197903</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2859958245338248</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2570413924045365</v>
+        <v>0.2564391157935544</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3166628450389909</v>
+        <v>0.3186936909371628</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>401</v>
@@ -2140,19 +2140,19 @@
         <v>334507</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>307853</v>
+        <v>306547</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>364265</v>
+        <v>365069</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.27050969393977</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2489551673299467</v>
+        <v>0.2478986224484803</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2945740843575584</v>
+        <v>0.2952243751400452</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>8145</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3074</v>
+        <v>3187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17935</v>
+        <v>18476</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01162535507859456</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004387846675699338</v>
+        <v>0.004548357426639461</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02559864178781467</v>
+        <v>0.02637132132831859</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2265,19 +2265,19 @@
         <v>6715</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11704</v>
+        <v>11900</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.009170391720619281</v>
+        <v>0.009170391720619283</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004737768935691279</v>
+        <v>0.004733871925272663</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01598519540572835</v>
+        <v>0.01625255983825711</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2286,19 +2286,19 @@
         <v>14860</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8263</v>
+        <v>8246</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25588</v>
+        <v>25409</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0103708116280017</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005766588897234253</v>
+        <v>0.005755387235756441</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01785867189070284</v>
+        <v>0.01773333259879117</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>10296</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5205</v>
+        <v>5314</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18270</v>
+        <v>18906</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01469583939487751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007429010480181686</v>
+        <v>0.007585135280534346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02607687884104663</v>
+        <v>0.0269846558131999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2336,19 +2336,19 @@
         <v>8731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4519</v>
+        <v>4803</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14700</v>
+        <v>14260</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0119238087594437</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00617164706589408</v>
+        <v>0.006560169563591677</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02007666166855532</v>
+        <v>0.01947601410683635</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2357,19 +2357,19 @@
         <v>19027</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12123</v>
+        <v>11496</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28154</v>
+        <v>27391</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01327926718119102</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008461206210263918</v>
+        <v>0.008023042224383754</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01964923813041203</v>
+        <v>0.01911668345165925</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>85240</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>68552</v>
+        <v>68196</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>105879</v>
+        <v>103685</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.121664134574604</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09784477731250033</v>
+        <v>0.09733668502519673</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1511219414883096</v>
+        <v>0.1479906863288127</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>95</v>
@@ -2407,19 +2407,19 @@
         <v>64367</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52582</v>
+        <v>53455</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>77594</v>
+        <v>77682</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.0879086299206181</v>
+        <v>0.08790862992061811</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07181272536916937</v>
+        <v>0.07300577766529344</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1059735155326808</v>
+        <v>0.1060934269457865</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>173</v>
@@ -2428,19 +2428,19 @@
         <v>149607</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>128683</v>
+        <v>129018</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>173408</v>
+        <v>174435</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1044142855503639</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08981048843763516</v>
+        <v>0.09004463286538712</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1210254555401227</v>
+        <v>0.1217419252912484</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>28408</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19885</v>
+        <v>19168</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>39862</v>
+        <v>40733</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04054643335931668</v>
+        <v>0.04054643335931667</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02838188316664382</v>
+        <v>0.02735872054986922</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05689599242620523</v>
+        <v>0.05813808864561663</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -2478,19 +2478,19 @@
         <v>26827</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19979</v>
+        <v>19339</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>35902</v>
+        <v>35489</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.03663914109990561</v>
+        <v>0.03663914109990562</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02728658497340992</v>
+        <v>0.02641231999085966</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04903313948386895</v>
+        <v>0.0484684454370357</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>72</v>
@@ -2499,19 +2499,19 @@
         <v>55235</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42788</v>
+        <v>43130</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>69312</v>
+        <v>68668</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03854971601619546</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02986258476989414</v>
+        <v>0.03010146392129863</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0483745403673109</v>
+        <v>0.04792510830571727</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>237774</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>210083</v>
+        <v>211600</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>262279</v>
+        <v>261531</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3393786751922203</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2998545950041286</v>
+        <v>0.3020191033412565</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3743545298252025</v>
+        <v>0.3732873973776634</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>382</v>
@@ -2549,19 +2549,19 @@
         <v>253129</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>233170</v>
+        <v>232518</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>273983</v>
+        <v>271965</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3457078698018791</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3184482511565235</v>
+        <v>0.3175586527101361</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3741889671225515</v>
+        <v>0.3714326355133968</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>602</v>
@@ -2570,19 +2570,19 @@
         <v>490904</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>456683</v>
+        <v>460028</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>523883</v>
+        <v>526560</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.342613041041014</v>
+        <v>0.3426130410410139</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3187294117522352</v>
+        <v>0.3210642608641469</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3656298949236231</v>
+        <v>0.3674984199676512</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>330754</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>302542</v>
+        <v>303548</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>356799</v>
+        <v>357825</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4720895624003871</v>
+        <v>0.472089562400387</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.431822762368862</v>
+        <v>0.433257727384742</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5092645232709125</v>
+        <v>0.5107290322757703</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>589</v>
@@ -2620,19 +2620,19 @@
         <v>372437</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>353037</v>
+        <v>351570</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>394142</v>
+        <v>394413</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.5086501586975342</v>
+        <v>0.5086501586975343</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4821546983154391</v>
+        <v>0.4801517310725822</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5382934580263642</v>
+        <v>0.5386641098290624</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>912</v>
@@ -2641,19 +2641,19 @@
         <v>703191</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>672499</v>
+        <v>667590</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>742108</v>
+        <v>739913</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.490772878583234</v>
+        <v>0.4907728785832339</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4693522808291586</v>
+        <v>0.4659265540560298</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5179342863686867</v>
+        <v>0.5164021660114135</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>4139</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12472</v>
+        <v>11139</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.006811790054036479</v>
+        <v>0.00681179005403648</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001629512588755472</v>
+        <v>0.001635535354350549</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02052692801972843</v>
+        <v>0.01833308924587696</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2766,19 +2766,19 @@
         <v>1701</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5046</v>
+        <v>4976</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.002803077156222186</v>
+        <v>0.002803077156222187</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0006651408068506914</v>
+        <v>0.0006685566923954927</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008312964189022286</v>
+        <v>0.008198208624380062</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2787,19 +2787,19 @@
         <v>5840</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2133</v>
+        <v>2294</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14710</v>
+        <v>13886</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.004808473914334199</v>
+        <v>0.004808473914334198</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001756639102600347</v>
+        <v>0.001888544730817459</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01211196834749147</v>
+        <v>0.01143290506772464</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>6907</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2763</v>
+        <v>3236</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12969</v>
+        <v>13211</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01136874022377646</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.004547467210080662</v>
+        <v>0.005326725747344474</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02134496914767338</v>
+        <v>0.021744085057575</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>12</v>
@@ -2837,19 +2837,19 @@
         <v>7277</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3886</v>
+        <v>3894</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12664</v>
+        <v>12617</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01198909244348466</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.006401898162703321</v>
+        <v>0.006416047334983819</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02086444857945153</v>
+        <v>0.02078685589774095</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>20</v>
@@ -2858,19 +2858,19 @@
         <v>14184</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8803</v>
+        <v>9362</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>21648</v>
+        <v>23094</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01167875534476932</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007247888922912901</v>
+        <v>0.007708325382039805</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01782395819893818</v>
+        <v>0.01901449592396324</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>47052</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>36635</v>
+        <v>35469</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>61826</v>
+        <v>61575</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.07744207384751653</v>
+        <v>0.07744207384751654</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06029648839375343</v>
+        <v>0.05837736176446076</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1017568806256233</v>
+        <v>0.1013448958793024</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>64</v>
@@ -2908,19 +2908,19 @@
         <v>40405</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31588</v>
+        <v>30533</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>50609</v>
+        <v>49504</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06657079117172901</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05204298823129992</v>
+        <v>0.05030568722599826</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08338179236408182</v>
+        <v>0.08156245879026375</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>114</v>
@@ -2929,19 +2929,19 @@
         <v>87458</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>73316</v>
+        <v>73179</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>107068</v>
+        <v>104143</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.07200925373821275</v>
+        <v>0.07200925373821274</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06036562074485157</v>
+        <v>0.06025315210815019</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0881555602287919</v>
+        <v>0.08574777141099055</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>26533</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18482</v>
+        <v>18341</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37691</v>
+        <v>36559</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.0436698022779004</v>
+        <v>0.04366980227790041</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03041830967230142</v>
+        <v>0.03018683563118076</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06203418110523164</v>
+        <v>0.06017089780032685</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>32</v>
@@ -2979,19 +2979,19 @@
         <v>19551</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>13638</v>
+        <v>13112</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27593</v>
+        <v>27373</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03221243562588942</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02246909494521732</v>
+        <v>0.0216036154373646</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04546127713426842</v>
+        <v>0.04509899521455969</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>61</v>
@@ -3000,19 +3000,19 @@
         <v>46084</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>35502</v>
+        <v>34536</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>57760</v>
+        <v>58492</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03794409227632484</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02923093091663385</v>
+        <v>0.02843567695446773</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04755749545535633</v>
+        <v>0.04816031203445848</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>86709</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>72106</v>
+        <v>70290</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>104519</v>
+        <v>103200</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.142711881030922</v>
+        <v>0.1427118810309221</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.118677306847303</v>
+        <v>0.1156873814145986</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1720245531482182</v>
+        <v>0.1698533983876763</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>143</v>
@@ -3050,19 +3050,19 @@
         <v>89851</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>76602</v>
+        <v>76870</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>104477</v>
+        <v>104224</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1480361155420163</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1262083676599291</v>
+        <v>0.1266496120209087</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1721335072474022</v>
+        <v>0.1717172853804446</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>234</v>
@@ -3071,19 +3071,19 @@
         <v>176560</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>155294</v>
+        <v>155116</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>198000</v>
+        <v>198516</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1453726165835855</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1278632455592201</v>
+        <v>0.1277163859551924</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1630252397869991</v>
+        <v>0.1634505472278059</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>436241</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>413037</v>
+        <v>415585</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>456575</v>
+        <v>456599</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.717995712565848</v>
+        <v>0.7179957125658482</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6798050629199005</v>
+        <v>0.6839982302434074</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7514616209680451</v>
+        <v>0.7515018364306651</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>745</v>
@@ -3121,19 +3121,19 @@
         <v>448166</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>428673</v>
+        <v>430450</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>464186</v>
+        <v>464726</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7383884880606584</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7062724042225941</v>
+        <v>0.7092006570276371</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7647840560164498</v>
+        <v>0.7656722376804779</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1225</v>
@@ -3142,19 +3142,19 @@
         <v>884407</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>857452</v>
+        <v>855725</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>909065</v>
+        <v>911705</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7281868081427734</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.705993391333862</v>
+        <v>0.7045713798902042</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7484892931191635</v>
+        <v>0.7506631764088479</v>
       </c>
     </row>
     <row r="38">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5160</v>
+        <v>5659</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.003688700722020374</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01270112350163966</v>
+        <v>0.01393100409478238</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -3267,19 +3267,19 @@
         <v>2150</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4847</v>
+        <v>5365</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.004904111450128723</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.001135279244270864</v>
+        <v>0.00114866232992607</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01105438789198584</v>
+        <v>0.01223634219573622</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>6</v>
@@ -3288,19 +3288,19 @@
         <v>3649</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1339</v>
+        <v>1484</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7585</v>
+        <v>8165</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.004319614733990737</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.001584595837457079</v>
+        <v>0.001756581162642207</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.008979796139046823</v>
+        <v>0.009666128873575663</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>6147</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2642</v>
+        <v>2902</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>11623</v>
+        <v>11995</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01513115476222906</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006504702211774034</v>
+        <v>0.007143378549552167</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02861307250629833</v>
+        <v>0.02952877845135903</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3338,19 +3338,19 @@
         <v>2813</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6383</v>
+        <v>6307</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.006416214400243789</v>
+        <v>0.00641621440024379</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002498553038228727</v>
+        <v>0.002156193924272939</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01455715282220557</v>
+        <v>0.01438251879171354</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>13</v>
@@ -3359,19 +3359,19 @@
         <v>8960</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5188</v>
+        <v>4993</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17116</v>
+        <v>15839</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0106072700698336</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006141838915997172</v>
+        <v>0.005911340515020077</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02026222123947303</v>
+        <v>0.01875017789885171</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>27155</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>19140</v>
+        <v>19783</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>37725</v>
+        <v>36157</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.06684713378862801</v>
+        <v>0.066847133788628</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04711625481103282</v>
+        <v>0.0487003679574556</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09286565624362987</v>
+        <v>0.08900607080344679</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>44</v>
@@ -3409,19 +3409,19 @@
         <v>24477</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>18200</v>
+        <v>18188</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>32026</v>
+        <v>33024</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05582061985853349</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04150595379843869</v>
+        <v>0.04147943667784683</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07303641852347338</v>
+        <v>0.07531260377169077</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>82</v>
@@ -3430,19 +3430,19 @@
         <v>51632</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>42556</v>
+        <v>41148</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>63723</v>
+        <v>63611</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.06112332209205817</v>
+        <v>0.06112332209205816</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05037934947085358</v>
+        <v>0.04871297279099937</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07543693837104497</v>
+        <v>0.07530480103910586</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>15366</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9553</v>
+        <v>9465</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22616</v>
+        <v>22671</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03782677476814732</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02351534703049215</v>
+        <v>0.02330007782371846</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0556738052172321</v>
+        <v>0.05580873037780312</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>19</v>
@@ -3480,19 +3480,19 @@
         <v>10042</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>6584</v>
+        <v>6075</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15240</v>
+        <v>15744</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02290221775033589</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0150157343362151</v>
+        <v>0.01385506584654975</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03475532074591564</v>
+        <v>0.03590518448681673</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>41</v>
@@ -3501,19 +3501,19 @@
         <v>25409</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>18994</v>
+        <v>18372</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>35129</v>
+        <v>34622</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03007950717602809</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02248550320462597</v>
+        <v>0.02174982647365147</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04158695690026622</v>
+        <v>0.04098668087998812</v>
       </c>
     </row>
     <row r="43">
@@ -3530,19 +3530,19 @@
         <v>19454</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12993</v>
+        <v>13371</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>28137</v>
+        <v>28174</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04788993088970201</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0319849000039468</v>
+        <v>0.03291463560138289</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06926445016093036</v>
+        <v>0.0693560018902552</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>40</v>
@@ -3551,19 +3551,19 @@
         <v>23428</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16633</v>
+        <v>17364</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>30381</v>
+        <v>30949</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.05342963696638316</v>
+        <v>0.05342963696638317</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0379335258111926</v>
+        <v>0.03959897189212658</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06928610102158957</v>
+        <v>0.07058152546555055</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>65</v>
@@ -3572,19 +3572,19 @@
         <v>42882</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>34859</v>
+        <v>32956</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>54972</v>
+        <v>54211</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05076556634786125</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04126756517894598</v>
+        <v>0.03901472374651976</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06507733435079416</v>
+        <v>0.06417701540273148</v>
       </c>
     </row>
     <row r="44">
@@ -3601,19 +3601,19 @@
         <v>336606</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>323378</v>
+        <v>323394</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>350272</v>
+        <v>348337</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8286163050692732</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.796052302127271</v>
+        <v>0.7960909528874357</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8622559400137203</v>
+        <v>0.8574933403326404</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>714</v>
@@ -3622,19 +3622,19 @@
         <v>375576</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>365170</v>
+        <v>363820</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>386297</v>
+        <v>386118</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.8565271995743748</v>
+        <v>0.8565271995743751</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.832795847684048</v>
+        <v>0.8297159140932131</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8809764289286017</v>
+        <v>0.8805699197089872</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1188</v>
@@ -3643,19 +3643,19 @@
         <v>712182</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>695400</v>
+        <v>695213</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>727156</v>
+        <v>728220</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.843104719580228</v>
+        <v>0.8431047195802279</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8232377872528814</v>
+        <v>0.8230168088756953</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.860832613621387</v>
+        <v>0.8620914700545693</v>
       </c>
     </row>
     <row r="45">
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>4960</v>
+        <v>4477</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002921442785478628</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01598911970244659</v>
+        <v>0.01443195985944752</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -3768,19 +3768,19 @@
         <v>4446</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>9429</v>
+        <v>9540</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.009593427653667469</v>
+        <v>0.009593427653667471</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004333660980238073</v>
+        <v>0.004293710225757537</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02034384662887727</v>
+        <v>0.02058274099503004</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>8</v>
@@ -3789,19 +3789,19 @@
         <v>5353</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2160</v>
+        <v>2208</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>10386</v>
+        <v>10450</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.006918351546073337</v>
+        <v>0.006918351546073336</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002791739494188453</v>
+        <v>0.002853868113148931</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01342367069555098</v>
+        <v>0.0135072656625897</v>
       </c>
     </row>
     <row r="47">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4054</v>
+        <v>3536</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.003201423386545785</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0130674861224559</v>
+        <v>0.01140034953817839</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>8</v>
@@ -3839,19 +3839,19 @@
         <v>4416</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1998</v>
+        <v>1798</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8395</v>
+        <v>7996</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.009527682225347528</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.004311848997788757</v>
+        <v>0.003878902270798288</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01811320954717117</v>
+        <v>0.0172527389156414</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>10</v>
@@ -3860,19 +3860,19 @@
         <v>5409</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2687</v>
+        <v>2593</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>9813</v>
+        <v>9272</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.006991222055777528</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.003473415491219128</v>
+        <v>0.003351693749433263</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01268308881271676</v>
+        <v>0.01198480436257779</v>
       </c>
     </row>
     <row r="48">
@@ -3889,19 +3889,19 @@
         <v>12491</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7590</v>
+        <v>6846</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>20762</v>
+        <v>19367</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04026692096162739</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02446680403104723</v>
+        <v>0.0220693761999681</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.06693244056978245</v>
+        <v>0.0624351718302781</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>16</v>
@@ -3910,19 +3910,19 @@
         <v>8880</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>5240</v>
+        <v>5586</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>14839</v>
+        <v>15056</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01916063972375542</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01130632304865845</v>
+        <v>0.01205207281717008</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03201702949020042</v>
+        <v>0.03248440955764621</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>32</v>
@@ -3931,19 +3931,19 @@
         <v>21371</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>14881</v>
+        <v>15145</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>30544</v>
+        <v>30147</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02762302532189907</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01923365135187671</v>
+        <v>0.01957581784157649</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03947867100212477</v>
+        <v>0.03896622797059372</v>
       </c>
     </row>
     <row r="49">
@@ -3960,19 +3960,19 @@
         <v>4175</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1429</v>
+        <v>1583</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>8711</v>
+        <v>9324</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01345771898633469</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.004605871609915819</v>
+        <v>0.00510412541338062</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02808169632800048</v>
+        <v>0.03005981055070726</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>28</v>
@@ -3981,19 +3981,19 @@
         <v>14862</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>10247</v>
+        <v>10294</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>21446</v>
+        <v>21268</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.03206646612958718</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02210848242704457</v>
+        <v>0.02221073970688054</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04627220716425683</v>
+        <v>0.04588806522513457</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>34</v>
@@ -4002,19 +4002,19 @@
         <v>19037</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>13729</v>
+        <v>13436</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>26433</v>
+        <v>25979</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.02460544577977809</v>
+        <v>0.02460544577977808</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01774547728234081</v>
+        <v>0.01736677941019933</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03416533709534588</v>
+        <v>0.03357867107525059</v>
       </c>
     </row>
     <row r="50">
@@ -4031,19 +4031,19 @@
         <v>5062</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2281</v>
+        <v>2033</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>10290</v>
+        <v>9658</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01631812666110612</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.007353471785544037</v>
+        <v>0.006552854382334972</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03317114154670896</v>
+        <v>0.03113492241188633</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>15</v>
@@ -4052,19 +4052,19 @@
         <v>9220</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>5437</v>
+        <v>5471</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>15427</v>
+        <v>14293</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01989326065669622</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01173121534776081</v>
+        <v>0.01180350848600711</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03328463123701155</v>
+        <v>0.03083947145085817</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>22</v>
@@ -4073,19 +4073,19 @@
         <v>14282</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>8868</v>
+        <v>9377</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>20975</v>
+        <v>21461</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.01845984080908095</v>
+        <v>0.01845984080908096</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01146223465991</v>
+        <v>0.01211954602829491</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02711036920223012</v>
+        <v>0.02773934176046862</v>
       </c>
     </row>
     <row r="51">
@@ -4102,19 +4102,19 @@
         <v>286572</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>277005</v>
+        <v>277525</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>293369</v>
+        <v>293721</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.9238343672189072</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.892993400907222</v>
+        <v>0.8946708227409749</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9457469081167716</v>
+        <v>0.9468826671266569</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>805</v>
@@ -4123,19 +4123,19 @@
         <v>421651</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>411053</v>
+        <v>410323</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>429821</v>
+        <v>429530</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.9097585236109462</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.8868920176353214</v>
+        <v>0.8853160364895183</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.9273865637385581</v>
+        <v>0.9267580170171488</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1231</v>
@@ -4144,19 +4144,19 @@
         <v>708224</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>695007</v>
+        <v>696183</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>719512</v>
+        <v>719940</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.9154021144873909</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.8983193136884317</v>
+        <v>0.8998393290894637</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.9299930879865806</v>
+        <v>0.9305455061510927</v>
       </c>
     </row>
     <row r="52">
@@ -4248,19 +4248,19 @@
         <v>39095</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>24885</v>
+        <v>25225</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>60301</v>
+        <v>60613</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.01114135118916345</v>
+        <v>0.01114135118916344</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.0070919013833028</v>
+        <v>0.007188666546250095</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01718468472578034</v>
+        <v>0.01727377707616353</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>36</v>
@@ -4269,19 +4269,19 @@
         <v>28695</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>19291</v>
+        <v>19614</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>39927</v>
+        <v>43249</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.007711576726432729</v>
+        <v>0.007711576726432726</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.005184307121190551</v>
+        <v>0.0052710664931506</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0107299027287008</v>
+        <v>0.01162276458387457</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>59</v>
@@ -4290,19 +4290,19 @@
         <v>67790</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>50267</v>
+        <v>50167</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>92846</v>
+        <v>91795</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.009376152136307764</v>
+        <v>0.009376152136307768</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.006952551172476206</v>
+        <v>0.006938665329113938</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01284165507955954</v>
+        <v>0.01269637081812902</v>
       </c>
     </row>
     <row r="54">
@@ -4319,19 +4319,19 @@
         <v>63589</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>49560</v>
+        <v>48075</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>85026</v>
+        <v>82214</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01812173056499867</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01412378218812643</v>
+        <v>0.01370057905493988</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02423100413167514</v>
+        <v>0.02342961424638692</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>72</v>
@@ -4340,19 +4340,19 @@
         <v>55216</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>43120</v>
+        <v>43553</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>68897</v>
+        <v>71438</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.01483860713574093</v>
+        <v>0.01483860713574092</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0115881332167316</v>
+        <v>0.01170442330296462</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01851518930146876</v>
+        <v>0.01919816825169813</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>132</v>
@@ -4361,19 +4361,19 @@
         <v>118804</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>99421</v>
+        <v>98375</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>143454</v>
+        <v>143492</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01643200827255385</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01375111531661126</v>
+        <v>0.01360645402956358</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01984132970470993</v>
+        <v>0.01984663000468807</v>
       </c>
     </row>
     <row r="55">
@@ -4390,19 +4390,19 @@
         <v>498412</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>445818</v>
+        <v>452598</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>543121</v>
+        <v>545216</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1420394210487126</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1270510305368305</v>
+        <v>0.1289830764366077</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1547807175627253</v>
+        <v>0.1553778749254128</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>518</v>
@@ -4411,19 +4411,19 @@
         <v>456126</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>418003</v>
+        <v>417781</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>500276</v>
+        <v>494991</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.1225787892336193</v>
+        <v>0.1225787892336192</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1123336430726388</v>
+        <v>0.1122739756566129</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1344436053884401</v>
+        <v>0.1330230979951428</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>919</v>
@@ -4432,19 +4432,19 @@
         <v>954538</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>889693</v>
+        <v>893379</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1014616</v>
+        <v>1020173</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.1320236345236051</v>
+        <v>0.1320236345236052</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1230547298212205</v>
+        <v>0.1235645998402775</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1403330340035073</v>
+        <v>0.1411017337240976</v>
       </c>
     </row>
     <row r="56">
@@ -4461,19 +4461,19 @@
         <v>162964</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>137669</v>
+        <v>135354</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>193175</v>
+        <v>192276</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.0464422191587328</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03923352998595981</v>
+        <v>0.03857366713748817</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.05505183920865649</v>
+        <v>0.05479568240735455</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>193</v>
@@ -4482,19 +4482,19 @@
         <v>137895</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>118056</v>
+        <v>119696</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>159343</v>
+        <v>160805</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.03705772742393576</v>
+        <v>0.03705772742393575</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.03172618805710285</v>
+        <v>0.03216681755903347</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.04282173789540638</v>
+        <v>0.04321459662465296</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>340</v>
@@ -4503,19 +4503,19 @@
         <v>300859</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>268751</v>
+        <v>268323</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>335416</v>
+        <v>340180</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.04161231092371533</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.03717131835213131</v>
+        <v>0.03711219211948027</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.04639183690596975</v>
+        <v>0.04705083496610619</v>
       </c>
     </row>
     <row r="57">
@@ -4532,19 +4532,19 @@
         <v>840053</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>784852</v>
+        <v>784544</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>899600</v>
+        <v>898922</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.2394017556333037</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2236703793605663</v>
+        <v>0.2235825022034374</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2563715864043635</v>
+        <v>0.2561782936284886</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>1166</v>
@@ -4553,19 +4553,19 @@
         <v>901411</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>851788</v>
+        <v>842600</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>949009</v>
+        <v>943641</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.2422440147249433</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.2289084609135358</v>
+        <v>0.226439084160363</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.2550355060662379</v>
+        <v>0.2535927508190193</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>1855</v>
@@ -4574,19 +4574,19 @@
         <v>1741464</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>1673204</v>
+        <v>1669141</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>1820442</v>
+        <v>1814145</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.2408645786588556</v>
+        <v>0.2408645786588557</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.231423441966128</v>
+        <v>0.2308614391912852</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.2517880816525501</v>
+        <v>0.2509170905497317</v>
       </c>
     </row>
     <row r="58">
@@ -4603,19 +4603,19 @@
         <v>1904856</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1837840</v>
+        <v>1839282</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>1966545</v>
+        <v>1972775</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.5428535224050888</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.5237551067106259</v>
+        <v>0.524165928116832</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.5604337532945657</v>
+        <v>0.5622093952454681</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>3362</v>
@@ -4624,19 +4624,19 @@
         <v>2141743</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>2086346</v>
+        <v>2092937</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>2194845</v>
+        <v>2201946</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.5755692847553282</v>
+        <v>0.5755692847553281</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.5606817547384053</v>
+        <v>0.5624532424390309</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.5898398035595017</v>
+        <v>0.5917479780558383</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>5406</v>
@@ -4645,19 +4645,19 @@
         <v>4046600</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>3961516</v>
+        <v>3968918</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>4131221</v>
+        <v>4135107</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.559691315484962</v>
+        <v>0.5596913154849623</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.5479233243510084</v>
+        <v>0.5489471219617761</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.5713953840957768</v>
+        <v>0.5719329015621536</v>
       </c>
     </row>
     <row r="59">
